--- a/SIC.Labs.First/Files/Results/2_studentsResults.xlsx
+++ b/SIC.Labs.First/Files/Results/2_studentsResults.xlsx
@@ -12,7 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
   <si>
     <t>Alfrinus</t>
   </si>
@@ -267,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -354,21 +366,21 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -382,21 +394,21 @@
         <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -410,21 +422,21 @@
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -435,52 +447,52 @@
         <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -508,63 +520,77 @@
         <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
